--- a/Results/TC_clusters_genes_pathways.xlsx
+++ b/Results/TC_clusters_genes_pathways.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster C0" sheetId="1" r:id="rId1"/>
@@ -5568,12 +5568,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5592,6 +5592,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -5605,6 +5636,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -5613,25 +5651,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5652,15 +5689,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5680,39 +5726,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5725,14 +5740,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5743,13 +5750,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5761,31 +5804,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5803,19 +5852,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5827,55 +5882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5893,37 +5906,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5952,22 +5959,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5987,39 +6004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6035,179 +6019,196 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6556,17 +6557,17 @@
   <sheetPr/>
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E290" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="61.4" customWidth="true"/>
-    <col min="3" max="3" width="22.8" customWidth="true"/>
-    <col min="4" max="4" width="31.2" customWidth="true"/>
-    <col min="5" max="5" width="28.8" customWidth="true"/>
+    <col min="2" max="2" width="25.5" customWidth="true"/>
+    <col min="3" max="3" width="26.3" customWidth="true"/>
+    <col min="4" max="4" width="30.9" customWidth="true"/>
+    <col min="5" max="5" width="33.9" customWidth="true"/>
     <col min="6" max="6" width="45.4" customWidth="true"/>
   </cols>
   <sheetData>
@@ -10563,10 +10564,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="58.7" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
@@ -11327,10 +11324,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="43.5" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
@@ -11810,24 +11803,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="57.4" customWidth="true"/>
-    <col min="3" max="3" width="38.6" customWidth="true"/>
-    <col min="4" max="4" width="34" customWidth="true"/>
-    <col min="5" max="5" width="31.7" customWidth="true"/>
-    <col min="6" max="6" width="35.9" customWidth="true"/>
-    <col min="9" max="9" width="34" customWidth="true"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11843,90 +11827,80 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>908</v>
       </c>
       <c r="B2" t="s">
         <v>909</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B3" t="s">
         <v>911</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B4" t="s">
         <v>913</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>914</v>
       </c>
       <c r="B5" t="s">
         <v>915</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>916</v>
       </c>
       <c r="B6" t="s">
         <v>917</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>920</v>
       </c>
       <c r="B9" t="s">
         <v>921</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>923</v>
       </c>
@@ -11945,9 +11919,8 @@
       <c r="F11" t="s">
         <v>863</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>926</v>
       </c>
@@ -11966,36 +11939,32 @@
       <c r="F12" t="s">
         <v>863</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>931</v>
       </c>
       <c r="B15" t="s">
         <v>932</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>933</v>
       </c>
@@ -12014,45 +11983,40 @@
       <c r="F16" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>936</v>
       </c>
       <c r="B18" t="s">
         <v>937</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B19" t="s">
         <v>939</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>940</v>
       </c>
       <c r="B20" t="s">
         <v>941</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>942</v>
       </c>
@@ -12071,7 +12035,6 @@
       <c r="F21" t="s">
         <v>898</v>
       </c>
-      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
@@ -12089,7 +12052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>946</v>
       </c>
@@ -12108,7 +12071,6 @@
       <c r="F24" t="s">
         <v>950</v>
       </c>
-      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
@@ -12118,7 +12080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>952</v>
       </c>
@@ -12137,7 +12099,6 @@
       <c r="F26" t="s">
         <v>424</v>
       </c>
-      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
@@ -12171,7 +12132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>959</v>
       </c>
@@ -12184,9 +12145,8 @@
       <c r="F31" t="s">
         <v>821</v>
       </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>961</v>
       </c>
@@ -12199,7 +12159,6 @@
       <c r="F32" t="s">
         <v>963</v>
       </c>
-      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
@@ -12209,7 +12168,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>965</v>
       </c>
@@ -12228,7 +12187,6 @@
       <c r="F34" t="s">
         <v>968</v>
       </c>
-      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
@@ -12310,7 +12268,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>982</v>
       </c>
@@ -12329,7 +12287,6 @@
       <c r="F45" t="s">
         <v>986</v>
       </c>
-      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
@@ -12347,7 +12304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>989</v>
       </c>
@@ -12366,7 +12323,6 @@
       <c r="F48" t="s">
         <v>268</v>
       </c>
-      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
@@ -12384,7 +12340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>993</v>
       </c>
@@ -12403,7 +12359,6 @@
       <c r="F51" t="s">
         <v>996</v>
       </c>
-      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
@@ -12421,7 +12376,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12440,7 +12395,6 @@
       <c r="F54" t="s">
         <v>115</v>
       </c>
-      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
@@ -12458,7 +12412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>1004</v>
       </c>
@@ -12477,9 +12431,8 @@
       <c r="F57" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12498,9 +12451,8 @@
       <c r="F58" t="s">
         <v>382</v>
       </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>1007</v>
       </c>
@@ -12519,7 +12471,6 @@
       <c r="F59" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
@@ -12553,7 +12504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>1014</v>
       </c>
@@ -12572,9 +12523,8 @@
       <c r="F64" t="s">
         <v>1017</v>
       </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>1018</v>
       </c>
@@ -12593,9 +12543,8 @@
       <c r="F65" t="s">
         <v>1021</v>
       </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>1022</v>
       </c>
@@ -12614,7 +12563,6 @@
       <c r="F66" t="s">
         <v>562</v>
       </c>
-      <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
@@ -12681,9 +12629,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="I1:I74">
-    <sortCondition ref="I1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -12695,18 +12640,10 @@
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="58.5" customWidth="true"/>
-    <col min="3" max="3" width="36.2" customWidth="true"/>
-    <col min="4" max="4" width="38.5" customWidth="true"/>
-    <col min="5" max="5" width="32.3" customWidth="true"/>
-    <col min="6" max="6" width="39.4" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
@@ -16679,10 +16616,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="102.8" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
@@ -17077,18 +17010,10 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="58.4" customWidth="true"/>
-    <col min="3" max="3" width="53.5" customWidth="true"/>
-    <col min="4" max="4" width="45" customWidth="true"/>
-    <col min="5" max="5" width="44.8" customWidth="true"/>
-    <col min="6" max="6" width="35.6" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">

--- a/Results/TC_clusters_genes_pathways.xlsx
+++ b/Results/TC_clusters_genes_pathways.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700"/>
+    <workbookView windowWidth="28800" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster C0" sheetId="1" r:id="rId1"/>
@@ -5568,10 +5568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -5590,26 +5590,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5618,6 +5602,21 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5630,14 +5629,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5653,14 +5645,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5668,9 +5660,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5689,24 +5704,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5719,25 +5725,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5750,25 +5750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5780,7 +5774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5792,19 +5786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5816,7 +5816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5834,7 +5834,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5846,85 +5918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5959,6 +5959,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5989,6 +6007,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6000,6 +6029,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6018,189 +6056,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6557,18 +6557,18 @@
   <sheetPr/>
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E290" sqref="E$1:E$1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.2" customWidth="true"/>
-    <col min="2" max="2" width="25.5" customWidth="true"/>
-    <col min="3" max="3" width="26.3" customWidth="true"/>
-    <col min="4" max="4" width="30.9" customWidth="true"/>
-    <col min="5" max="5" width="33.9" customWidth="true"/>
-    <col min="6" max="6" width="45.4" customWidth="true"/>
+    <col min="2" max="2" width="32" customWidth="true"/>
+    <col min="3" max="3" width="31.3" customWidth="true"/>
+    <col min="4" max="4" width="36.6" customWidth="true"/>
+    <col min="5" max="5" width="34.6" customWidth="true"/>
+    <col min="7" max="7" width="28.3" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -12639,11 +12639,19 @@
   <sheetPr/>
   <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="D180" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.2" customWidth="true"/>
+    <col min="2" max="2" width="30.1" customWidth="true"/>
+    <col min="3" max="3" width="33.4" customWidth="true"/>
+    <col min="4" max="4" width="31.8" customWidth="true"/>
+    <col min="5" max="5" width="33.2" customWidth="true"/>
+    <col min="6" max="6" width="39.4" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
